--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5852,11 +5852,21 @@
       <c r="C208" t="n">
         <v>30110066</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>477586</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F208" t="n">
+        <v>53059804600</v>
+      </c>
+      <c r="G208" t="n">
+        <v>657671773134200</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5866,13 +5876,29 @@
         <v>104900</v>
       </c>
       <c r="C209" t="n">
-        <v>30442172</v>
+        <v>30450281</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>100600</v>
+      </c>
+      <c r="C210" t="n">
+        <v>44831884</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5885,7 +5911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11301,11 +11327,21 @@
       <c r="C208" t="n">
         <v>5787058</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>1782174</v>
+      </c>
+      <c r="E208" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1104947880000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>451361466300000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11315,13 +11351,29 @@
         <v>586000</v>
       </c>
       <c r="C209" t="n">
-        <v>5963866</v>
+        <v>5969769</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>579000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8778997</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11334,7 +11386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16750,11 +16802,21 @@
       <c r="C208" t="n">
         <v>337955</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>2344856</v>
+      </c>
+      <c r="E208" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1114979028000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>111267000000000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16771,6 +16833,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>464000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>443887</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16783,7 +16861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22199,11 +22277,21 @@
       <c r="C208" t="n">
         <v>345947</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>123806</v>
+      </c>
+      <c r="E208" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F208" t="n">
+        <v>48655758000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>27742790799000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1800000071525574</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -22220,6 +22308,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>385000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>436160</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22232,7 +22336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27648,11 +27752,21 @@
       <c r="C208" t="n">
         <v>531734</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>3207917</v>
+      </c>
+      <c r="E208" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F208" t="n">
+        <v>528985513300</v>
+      </c>
+      <c r="G208" t="n">
+        <v>16127441625600</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.279999971389771</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -27669,6 +27783,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>157900</v>
+      </c>
+      <c r="C210" t="n">
+        <v>688684</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27681,7 +27811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33097,11 +33227,21 @@
       <c r="C208" t="n">
         <v>2687046</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>6482119</v>
+      </c>
+      <c r="E208" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F208" t="n">
+        <v>614504881200</v>
+      </c>
+      <c r="G208" t="n">
+        <v>12871579209600</v>
+      </c>
+      <c r="H208" t="n">
+        <v>4.769999980926514</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -33118,6 +33258,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6484889</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33130,7 +33286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38546,11 +38702,21 @@
       <c r="C208" t="n">
         <v>927485</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>323975</v>
+      </c>
+      <c r="E208" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F208" t="n">
+        <v>28704185000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>14431733888200</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.2000000029802322</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -38567,6 +38733,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>87100</v>
+      </c>
+      <c r="C210" t="n">
+        <v>912444</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -38579,7 +38761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43995,11 +44177,21 @@
       <c r="C208" t="n">
         <v>3162377</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>5836651</v>
+      </c>
+      <c r="E208" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>84748172520</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7260000000000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.169999957084656</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -44017,6 +44209,22 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>14010</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3053245</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5878,11 +5878,21 @@
       <c r="C209" t="n">
         <v>30450281</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>468411</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F209" t="n">
+        <v>49136313900</v>
+      </c>
+      <c r="G209" t="n">
+        <v>620970018017800</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5892,13 +5902,29 @@
         <v>100600</v>
       </c>
       <c r="C210" t="n">
-        <v>44831884</v>
+        <v>44843020</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>99200</v>
+      </c>
+      <c r="C211" t="n">
+        <v>28494232</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5911,7 +5937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11353,11 +11379,21 @@
       <c r="C209" t="n">
         <v>5969769</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>1758469</v>
+      </c>
+      <c r="E209" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1030462834000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>426609385890000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11367,13 +11403,29 @@
         <v>579000</v>
       </c>
       <c r="C210" t="n">
-        <v>8778997</v>
+        <v>8976222</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>593000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5186297</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11386,7 +11438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16828,11 +16880,21 @@
       <c r="C209" t="n">
         <v>397941</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>2303845</v>
+      </c>
+      <c r="E209" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1089718685000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>110682000000000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16849,6 +16911,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>470000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>600184</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16861,7 +16939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22303,11 +22381,21 @@
       <c r="C209" t="n">
         <v>294129</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>137906</v>
+      </c>
+      <c r="E209" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F209" t="n">
+        <v>54472870000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>27883975485000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.2000000029802322</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -22324,6 +22412,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>385500</v>
+      </c>
+      <c r="C211" t="n">
+        <v>441659</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22336,7 +22440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27778,11 +27882,21 @@
       <c r="C209" t="n">
         <v>725702</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>3351921</v>
+      </c>
+      <c r="E209" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F209" t="n">
+        <v>542340817800</v>
+      </c>
+      <c r="G209" t="n">
+        <v>15824257459200</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3.430000066757202</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -27799,6 +27913,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>158000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>429277</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27811,7 +27941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33253,11 +33383,21 @@
       <c r="C209" t="n">
         <v>2905365</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>6623833</v>
+      </c>
+      <c r="E209" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F209" t="n">
+        <v>633900818100</v>
+      </c>
+      <c r="G209" t="n">
+        <v>12993777746400</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.880000114440918</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -33267,13 +33407,29 @@
         <v>92800</v>
       </c>
       <c r="C210" t="n">
-        <v>6484889</v>
+        <v>6536141</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>93200</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5589570</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33286,7 +33442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38728,11 +38884,21 @@
       <c r="C209" t="n">
         <v>932443</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>287122</v>
+      </c>
+      <c r="E209" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F209" t="n">
+        <v>25410297000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>14415445249500</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1800000071525574</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -38749,6 +38915,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>91700</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2254077</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -38761,7 +38943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44203,11 +44385,21 @@
       <c r="C209" t="n">
         <v>2944937</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>5813849</v>
+      </c>
+      <c r="E209" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>84707779930</v>
+      </c>
+      <c r="G209" t="n">
+        <v>7285000000000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1.159999966621399</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -44225,6 +44417,22 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>14040</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1948877</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5904,11 +5904,21 @@
       <c r="C210" t="n">
         <v>44843020</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>477610</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F210" t="n">
+        <v>48047566000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>595515574953200</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5918,13 +5928,159 @@
         <v>99200</v>
       </c>
       <c r="C211" t="n">
-        <v>28494232</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>28655689</v>
+      </c>
+      <c r="D211" t="n">
+        <v>463138</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F211" t="n">
+        <v>45943289600</v>
+      </c>
+      <c r="G211" t="n">
+        <v>587228081862400</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>97900</v>
+      </c>
+      <c r="C212" t="n">
+        <v>22908083</v>
+      </c>
+      <c r="D212" t="n">
+        <v>459533</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F212" t="n">
+        <v>44988280700</v>
+      </c>
+      <c r="G212" t="n">
+        <v>579532552563800</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>100600</v>
+      </c>
+      <c r="C213" t="n">
+        <v>23842327</v>
+      </c>
+      <c r="D213" t="n">
+        <v>515810</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F213" t="n">
+        <v>51890486000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>595515574953200</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>103500</v>
+      </c>
+      <c r="C214" t="n">
+        <v>27742542</v>
+      </c>
+      <c r="D214" t="n">
+        <v>515810</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F214" t="n">
+        <v>53386335000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>612682524927000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>103100</v>
+      </c>
+      <c r="C215" t="n">
+        <v>19413497</v>
+      </c>
+      <c r="D215" t="n">
+        <v>513190</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F215" t="n">
+        <v>52909889000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>610314669758200</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>102800</v>
+      </c>
+      <c r="C216" t="n">
+        <v>20838741</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>97200</v>
+      </c>
+      <c r="C217" t="n">
+        <v>21806342</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5937,7 +6093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11405,11 +11561,21 @@
       <c r="C210" t="n">
         <v>8976222</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>1679457</v>
+      </c>
+      <c r="E210" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F210" t="n">
+        <v>972405603000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>421513369335000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.2300000041723251</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11419,13 +11585,159 @@
         <v>593000</v>
       </c>
       <c r="C211" t="n">
-        <v>5186297</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>5321244</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1729561</v>
+      </c>
+      <c r="E211" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1025629673000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>431705402445000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.239999994635582</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>580000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4789397</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1680813</v>
+      </c>
+      <c r="E212" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F212" t="n">
+        <v>974871540000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>422241371700000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.2300000041723251</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>606000</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4893645</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1438796</v>
+      </c>
+      <c r="E213" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F213" t="n">
+        <v>871910376000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>441169433190000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>619000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5508697</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1454443</v>
+      </c>
+      <c r="E214" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F214" t="n">
+        <v>900300217000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>450633463935000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>617000</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2831484</v>
+      </c>
+      <c r="D215" t="n">
+        <v>991634</v>
+      </c>
+      <c r="E215" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F215" t="n">
+        <v>611838178000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>449177459205000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>612000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3875541</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>560000</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5746779</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11438,7 +11750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16906,11 +17218,21 @@
       <c r="C210" t="n">
         <v>443887</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>2228860</v>
+      </c>
+      <c r="E210" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1034191040000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>108576000000000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.949999988079071</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -16922,11 +17244,157 @@
       <c r="C211" t="n">
         <v>600184</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>2257724</v>
+      </c>
+      <c r="E211" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1061130280000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>109980000000000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>463500</v>
+      </c>
+      <c r="C212" t="n">
+        <v>279860</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2266867</v>
+      </c>
+      <c r="E212" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1050692854500</v>
+      </c>
+      <c r="G212" t="n">
+        <v>108459000000000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>465500</v>
+      </c>
+      <c r="C213" t="n">
+        <v>244077</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2296280</v>
+      </c>
+      <c r="E213" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1068918340000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>108927000000000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>473000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>396429</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2328800</v>
+      </c>
+      <c r="E214" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1101522400000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>110682000000000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>475500</v>
+      </c>
+      <c r="C215" t="n">
+        <v>258727</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2359500</v>
+      </c>
+      <c r="E215" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1121942250000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>111267000000000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.009999990463257</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>484500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>617757</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>463000</v>
+      </c>
+      <c r="C217" t="n">
+        <v>282819</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16939,7 +17407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22407,11 +22875,21 @@
       <c r="C210" t="n">
         <v>436160</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>155185</v>
+      </c>
+      <c r="E210" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F210" t="n">
+        <v>59746225000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>27178052055000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.2199999988079071</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -22423,11 +22901,157 @@
       <c r="C211" t="n">
         <v>441659</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>143456</v>
+      </c>
+      <c r="E211" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F211" t="n">
+        <v>55302288000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>27213348226500</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>382000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>259098</v>
+      </c>
+      <c r="D212" t="n">
+        <v>151689</v>
+      </c>
+      <c r="E212" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F212" t="n">
+        <v>57945198000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>26966275026000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.2099999934434891</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>397000</v>
+      </c>
+      <c r="C213" t="n">
+        <v>290167</v>
+      </c>
+      <c r="D213" t="n">
+        <v>155955</v>
+      </c>
+      <c r="E213" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F213" t="n">
+        <v>61914135000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>28025160171000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.2199999988079071</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>399500</v>
+      </c>
+      <c r="C214" t="n">
+        <v>396621</v>
+      </c>
+      <c r="D214" t="n">
+        <v>183453</v>
+      </c>
+      <c r="E214" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F214" t="n">
+        <v>73289473500</v>
+      </c>
+      <c r="G214" t="n">
+        <v>28201641028500</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.2599999904632568</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>393500</v>
+      </c>
+      <c r="C215" t="n">
+        <v>401469</v>
+      </c>
+      <c r="D215" t="n">
+        <v>192304</v>
+      </c>
+      <c r="E215" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F215" t="n">
+        <v>75671624000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>27778086970500</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.2700000107288361</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>419500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>676571</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>407500</v>
+      </c>
+      <c r="C217" t="n">
+        <v>338108</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22440,7 +23064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27908,11 +28532,21 @@
       <c r="C210" t="n">
         <v>688684</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>3355369</v>
+      </c>
+      <c r="E210" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F210" t="n">
+        <v>529812765100</v>
+      </c>
+      <c r="G210" t="n">
+        <v>15442832217600</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3.430000066757202</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -27924,11 +28558,157 @@
       <c r="C211" t="n">
         <v>429277</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>3373132</v>
+      </c>
+      <c r="E211" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F211" t="n">
+        <v>532954856000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>15452612352000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3.450000047683716</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>151100</v>
+      </c>
+      <c r="C212" t="n">
+        <v>488367</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3414220</v>
+      </c>
+      <c r="E212" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F212" t="n">
+        <v>515888642000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>14777783078400</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.490000009536743</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>153800</v>
+      </c>
+      <c r="C213" t="n">
+        <v>328529</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3415450</v>
+      </c>
+      <c r="E213" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F213" t="n">
+        <v>525296210000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>15041846707200</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.490000009536743</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>153600</v>
+      </c>
+      <c r="C214" t="n">
+        <v>561388</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3441967</v>
+      </c>
+      <c r="E214" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F214" t="n">
+        <v>528686131200</v>
+      </c>
+      <c r="G214" t="n">
+        <v>15022286438400</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3.519999980926514</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C215" t="n">
+        <v>316121</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3398397</v>
+      </c>
+      <c r="E215" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F215" t="n">
+        <v>527771054100</v>
+      </c>
+      <c r="G215" t="n">
+        <v>15188548723200</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3.470000028610229</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>160000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>578111</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>150600</v>
+      </c>
+      <c r="C217" t="n">
+        <v>370728</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27941,7 +28721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33409,11 +34189,21 @@
       <c r="C210" t="n">
         <v>6536141</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>7385895</v>
+      </c>
+      <c r="E210" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F210" t="n">
+        <v>685411056000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>12600026905600</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5.440000057220459</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -33423,13 +34213,159 @@
         <v>93200</v>
       </c>
       <c r="C211" t="n">
-        <v>5589570</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>5661883</v>
+      </c>
+      <c r="D211" t="n">
+        <v>7364628</v>
+      </c>
+      <c r="E211" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F211" t="n">
+        <v>686383329600</v>
+      </c>
+      <c r="G211" t="n">
+        <v>12654337366400</v>
+      </c>
+      <c r="H211" t="n">
+        <v>5.420000076293945</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>87200</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3748283</v>
+      </c>
+      <c r="D212" t="n">
+        <v>7463818</v>
+      </c>
+      <c r="E212" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F212" t="n">
+        <v>650844929600</v>
+      </c>
+      <c r="G212" t="n">
+        <v>11839680454400</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>87900</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4222485</v>
+      </c>
+      <c r="D213" t="n">
+        <v>7731889</v>
+      </c>
+      <c r="E213" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F213" t="n">
+        <v>679633043100</v>
+      </c>
+      <c r="G213" t="n">
+        <v>11934723760800</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5.690000057220459</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>94100</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12469599</v>
+      </c>
+      <c r="D214" t="n">
+        <v>7286551</v>
+      </c>
+      <c r="E214" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F214" t="n">
+        <v>685664449100</v>
+      </c>
+      <c r="G214" t="n">
+        <v>12776535903200</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.369999885559082</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>93600</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2934215</v>
+      </c>
+      <c r="D215" t="n">
+        <v>7445507</v>
+      </c>
+      <c r="E215" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F215" t="n">
+        <v>696899455200</v>
+      </c>
+      <c r="G215" t="n">
+        <v>12708647827200</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5.480000019073486</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>94700</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3328565</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>89900</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2512583</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33442,7 +34378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38910,11 +39846,21 @@
       <c r="C210" t="n">
         <v>912444</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>269356</v>
+      </c>
+      <c r="E210" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F210" t="n">
+        <v>23460907600</v>
+      </c>
+      <c r="G210" t="n">
+        <v>14187404307700</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.1700000017881393</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -38926,11 +39872,157 @@
       <c r="C211" t="n">
         <v>2254077</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>268364</v>
+      </c>
+      <c r="E211" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F211" t="n">
+        <v>24608978800</v>
+      </c>
+      <c r="G211" t="n">
+        <v>14936681687900</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>88300</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1113728</v>
+      </c>
+      <c r="D212" t="n">
+        <v>269442</v>
+      </c>
+      <c r="E212" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F212" t="n">
+        <v>23791728600</v>
+      </c>
+      <c r="G212" t="n">
+        <v>14382867972100</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.1700000017881393</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>89600</v>
+      </c>
+      <c r="C213" t="n">
+        <v>702948</v>
+      </c>
+      <c r="D213" t="n">
+        <v>224052</v>
+      </c>
+      <c r="E213" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20075059200</v>
+      </c>
+      <c r="G213" t="n">
+        <v>14594620275200</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>90600</v>
+      </c>
+      <c r="C214" t="n">
+        <v>971144</v>
+      </c>
+      <c r="D214" t="n">
+        <v>219386</v>
+      </c>
+      <c r="E214" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F214" t="n">
+        <v>19876371600</v>
+      </c>
+      <c r="G214" t="n">
+        <v>14757506662200</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.1299999952316284</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>92900</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1023036</v>
+      </c>
+      <c r="D215" t="n">
+        <v>172136</v>
+      </c>
+      <c r="E215" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F215" t="n">
+        <v>15991434400</v>
+      </c>
+      <c r="G215" t="n">
+        <v>15132145352300</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>92500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1173916</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>90200</v>
+      </c>
+      <c r="C217" t="n">
+        <v>586352</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -38943,7 +40035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44411,11 +45503,21 @@
       <c r="C210" t="n">
         <v>3053245</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>6611435</v>
+      </c>
+      <c r="E210" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>92626204350</v>
+      </c>
+      <c r="G210" t="n">
+        <v>7005000000000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.320000052452087</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -44425,13 +45527,159 @@
         <v>14040</v>
       </c>
       <c r="C211" t="n">
-        <v>1948877</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>1960730</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6609211</v>
+      </c>
+      <c r="E211" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>92793322440</v>
+      </c>
+      <c r="G211" t="n">
+        <v>7020000000000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.320000052452087</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>13410</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3334661</v>
+      </c>
+      <c r="D212" t="n">
+        <v>7692336</v>
+      </c>
+      <c r="E212" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>103154225760</v>
+      </c>
+      <c r="G212" t="n">
+        <v>6705000000000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.539999961853027</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>13730</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1233533</v>
+      </c>
+      <c r="D213" t="n">
+        <v>7502494</v>
+      </c>
+      <c r="E213" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>103009242620</v>
+      </c>
+      <c r="G213" t="n">
+        <v>6865000000000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13490</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1693670</v>
+      </c>
+      <c r="D214" t="n">
+        <v>7662900</v>
+      </c>
+      <c r="E214" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F214" t="n">
+        <v>103372521000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>6745000000000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.529999971389771</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>13600</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1621885</v>
+      </c>
+      <c r="D215" t="n">
+        <v>7649358</v>
+      </c>
+      <c r="E215" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>104031268800</v>
+      </c>
+      <c r="G215" t="n">
+        <v>6800000000000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.529999971389771</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>13460</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2106840</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>13190</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1609974</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6060,11 +6060,21 @@
       <c r="C216" t="n">
         <v>20838741</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>732668</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F216" t="n">
+        <v>75318270400</v>
+      </c>
+      <c r="G216" t="n">
+        <v>608538778381600</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -6081,6 +6091,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>100600</v>
+      </c>
+      <c r="C218" t="n">
+        <v>17102276</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6093,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11717,11 +11743,21 @@
       <c r="C216" t="n">
         <v>3875541</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>984339</v>
+      </c>
+      <c r="E216" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F216" t="n">
+        <v>602415468000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>445537447380000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11731,13 +11767,29 @@
         <v>560000</v>
       </c>
       <c r="C217" t="n">
-        <v>5746779</v>
+        <v>5778374</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>606000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4267071</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11750,7 +11802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17374,11 +17426,21 @@
       <c r="C216" t="n">
         <v>617757</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>2293942</v>
+      </c>
+      <c r="E216" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1111414899000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>113373000000000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -17395,6 +17457,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>463000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>157725</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17407,7 +17485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23031,11 +23109,21 @@
       <c r="C216" t="n">
         <v>676571</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>136255</v>
+      </c>
+      <c r="E216" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F216" t="n">
+        <v>57158972500</v>
+      </c>
+      <c r="G216" t="n">
+        <v>29613487888500</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -23052,6 +23140,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>402000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>264512</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23064,7 +23168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28688,11 +28792,21 @@
       <c r="C216" t="n">
         <v>578111</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>3358845</v>
+      </c>
+      <c r="E216" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F216" t="n">
+        <v>537415200000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>15648215040000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3.430000066757202</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -28709,6 +28823,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>154400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>337973</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28721,7 +28851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34345,11 +34475,21 @@
       <c r="C216" t="n">
         <v>3328565</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>7508101</v>
+      </c>
+      <c r="E216" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F216" t="n">
+        <v>711017164700</v>
+      </c>
+      <c r="G216" t="n">
+        <v>12858001594400</v>
+      </c>
+      <c r="H216" t="n">
+        <v>5.53000020980835</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -34359,13 +34499,29 @@
         <v>89900</v>
       </c>
       <c r="C217" t="n">
-        <v>2512583</v>
+        <v>2562326</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>88200</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2081967</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34378,7 +34534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40002,11 +40158,21 @@
       <c r="C216" t="n">
         <v>1173916</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>171939</v>
+      </c>
+      <c r="E216" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F216" t="n">
+        <v>15904357500</v>
+      </c>
+      <c r="G216" t="n">
+        <v>15066990797500</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.1099999994039536</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -40023,6 +40189,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>91400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>480706</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40035,7 +40217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45659,11 +45841,21 @@
       <c r="C216" t="n">
         <v>2106840</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>7521396</v>
+      </c>
+      <c r="E216" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F216" t="n">
+        <v>101237990160</v>
+      </c>
+      <c r="G216" t="n">
+        <v>6730000000000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -45681,6 +45873,22 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12910</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2650609</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6138,11 +6138,21 @@
       <c r="C219" t="n">
         <v>17192584</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>732512</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F219" t="n">
+        <v>73690707200</v>
+      </c>
+      <c r="G219" t="n">
+        <v>595515574953200</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6159,6 +6169,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>96500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>17445931</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6171,7 +6197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11873,11 +11899,21 @@
       <c r="C219" t="n">
         <v>4470947</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>1049892</v>
+      </c>
+      <c r="E219" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F219" t="n">
+        <v>636234552000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>441169433190000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11887,13 +11923,29 @@
         <v>570000</v>
       </c>
       <c r="C220" t="n">
-        <v>3542598</v>
+        <v>3544391</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>562000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4293189</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11906,7 +11958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17608,11 +17660,21 @@
       <c r="C219" t="n">
         <v>157725</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>2329584</v>
+      </c>
+      <c r="E219" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1078597392000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>108342000000000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17629,6 +17691,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>437500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>249097</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17641,7 +17719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23343,11 +23421,21 @@
       <c r="C219" t="n">
         <v>264512</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>110331</v>
+      </c>
+      <c r="E219" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F219" t="n">
+        <v>44353062000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>28378121886000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.1599999964237213</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23357,13 +23445,29 @@
         <v>388000</v>
       </c>
       <c r="C220" t="n">
-        <v>297942</v>
+        <v>333994</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>390500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>206165</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23376,7 +23480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29078,11 +29182,21 @@
       <c r="C219" t="n">
         <v>337973</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>3421135</v>
+      </c>
+      <c r="E219" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F219" t="n">
+        <v>528223244000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>15100527513600</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -29099,6 +29213,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>143500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>412954</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29111,7 +29241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34813,11 +34943,21 @@
       <c r="C219" t="n">
         <v>2118696</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>7909450</v>
+      </c>
+      <c r="E219" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F219" t="n">
+        <v>697613490000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>11975456606400</v>
+      </c>
+      <c r="H219" t="n">
+        <v>5.829999923706055</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -34827,13 +34967,29 @@
         <v>81600</v>
       </c>
       <c r="C220" t="n">
-        <v>3443035</v>
+        <v>3490767</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>79300</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2641266</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34846,7 +35002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40548,11 +40704,21 @@
       <c r="C219" t="n">
         <v>480706</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>197534</v>
+      </c>
+      <c r="E219" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F219" t="n">
+        <v>18054607600</v>
+      </c>
+      <c r="G219" t="n">
+        <v>14887815771800</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.119999997317791</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -40569,6 +40735,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>87100</v>
+      </c>
+      <c r="C221" t="n">
+        <v>613143</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40581,7 +40763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46283,11 +46465,21 @@
       <c r="C219" t="n">
         <v>2650609</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>7213983</v>
+      </c>
+      <c r="E219" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F219" t="n">
+        <v>93132520530</v>
+      </c>
+      <c r="G219" t="n">
+        <v>6455000000000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.440000057220459</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -46305,6 +46497,22 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12380</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1997716</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6320,11 +6320,21 @@
       <c r="C226" t="n">
         <v>16110054</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>1162317</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F226" t="n">
+        <v>115418078100</v>
+      </c>
+      <c r="G226" t="n">
+        <v>587820045654600</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.01999999955296516</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6334,13 +6344,29 @@
         <v>102800</v>
       </c>
       <c r="C227" t="n">
-        <v>21274039</v>
+        <v>21314975</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>103500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16424489</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6353,7 +6379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12237,11 +12263,21 @@
       <c r="C226" t="n">
         <v>3716730</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>130886</v>
+      </c>
+      <c r="E226" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F226" t="n">
+        <v>67929834000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>377833227435000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.01999999955296516</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12251,13 +12287,29 @@
         <v>524000</v>
       </c>
       <c r="C227" t="n">
-        <v>5052885</v>
+        <v>5127393</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>544000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3594963</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12270,7 +12322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18154,11 +18206,21 @@
       <c r="C226" t="n">
         <v>240842</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>2294308</v>
+      </c>
+      <c r="E226" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>948696358000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>96759000000000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18168,13 +18230,29 @@
         <v>435500</v>
       </c>
       <c r="C227" t="n">
-        <v>414285</v>
+        <v>415285</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>438000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>363930</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18187,7 +18265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24071,11 +24149,21 @@
       <c r="C226" t="n">
         <v>251051</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>64785</v>
+      </c>
+      <c r="E226" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23516955000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>25625020509000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24092,6 +24180,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>395500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>455950</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24104,7 +24208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29988,11 +30092,21 @@
       <c r="C226" t="n">
         <v>218794</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>3573113</v>
+      </c>
+      <c r="E226" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F226" t="n">
+        <v>490945726200</v>
+      </c>
+      <c r="G226" t="n">
+        <v>13437904665600</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.650000095367432</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -30009,6 +30123,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>147000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>237991</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30021,7 +30151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35905,11 +36035,21 @@
       <c r="C226" t="n">
         <v>1687724</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>8222962</v>
+      </c>
+      <c r="E226" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F226" t="n">
+        <v>618366742400</v>
+      </c>
+      <c r="G226" t="n">
+        <v>10210366630400</v>
+      </c>
+      <c r="H226" t="n">
+        <v>6.059999942779541</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -35919,13 +36059,29 @@
         <v>83500</v>
       </c>
       <c r="C227" t="n">
-        <v>3602355</v>
+        <v>3702745</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>81900</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1931038</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35938,7 +36094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41822,11 +41978,21 @@
       <c r="C226" t="n">
         <v>485683</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>172216</v>
+      </c>
+      <c r="E226" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F226" t="n">
+        <v>14672803200</v>
+      </c>
+      <c r="G226" t="n">
+        <v>13877920172400</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.1099999994039536</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -41843,6 +42009,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C228" t="n">
+        <v>548757</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41855,7 +42037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47739,11 +47921,21 @@
       <c r="C226" t="n">
         <v>1202464</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>7627791</v>
+      </c>
+      <c r="E226" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>93287883930</v>
+      </c>
+      <c r="G226" t="n">
+        <v>6115000000000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.529999971389771</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -47761,6 +47953,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12700</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1065189</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_1.xlsx
+++ b/b_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6346,11 +6346,21 @@
       <c r="C227" t="n">
         <v>21314975</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>1133477</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F227" t="n">
+        <v>116521435600</v>
+      </c>
+      <c r="G227" t="n">
+        <v>608538778381600</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.01999999955296516</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6360,13 +6370,29 @@
         <v>103500</v>
       </c>
       <c r="C228" t="n">
-        <v>16424489</v>
+        <v>16453004</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>100500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>14541800</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6379,7 +6405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12289,11 +12315,21 @@
       <c r="C227" t="n">
         <v>5127393</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>196027</v>
+      </c>
+      <c r="E227" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F227" t="n">
+        <v>102718148000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>381473239260000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.02999999932944775</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12303,13 +12339,29 @@
         <v>544000</v>
       </c>
       <c r="C228" t="n">
-        <v>3594963</v>
+        <v>3654092</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>530000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2632049</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12322,7 +12374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18232,11 +18284,21 @@
       <c r="C227" t="n">
         <v>415285</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>2394273</v>
+      </c>
+      <c r="E227" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1042705891500</v>
+      </c>
+      <c r="G227" t="n">
+        <v>101907000000000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.019999980926514</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18253,6 +18315,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>408000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>712913</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18265,7 +18343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24175,11 +24253,21 @@
       <c r="C227" t="n">
         <v>504358</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>65776</v>
+      </c>
+      <c r="E227" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26113072000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>28025160171000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24189,13 +24277,29 @@
         <v>395500</v>
       </c>
       <c r="C228" t="n">
-        <v>455950</v>
+        <v>457285</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>374000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>401535</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24208,7 +24312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30118,11 +30222,21 @@
       <c r="C227" t="n">
         <v>509226</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>3454215</v>
+      </c>
+      <c r="E227" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F227" t="n">
+        <v>518132250000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>14670201600000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3.529999971389771</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -30139,6 +30253,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>149900</v>
+      </c>
+      <c r="C229" t="n">
+        <v>379604</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30151,7 +30281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36061,11 +36191,21 @@
       <c r="C227" t="n">
         <v>3702745</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>8278937</v>
+      </c>
+      <c r="E227" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F227" t="n">
+        <v>691291239500</v>
+      </c>
+      <c r="G227" t="n">
+        <v>11337308692000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>6.099999904632568</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -36075,13 +36215,29 @@
         <v>81900</v>
       </c>
       <c r="C228" t="n">
-        <v>1931038</v>
+        <v>1946496</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>84500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2299086</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36094,7 +36250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42004,11 +42160,21 @@
       <c r="C227" t="n">
         <v>455906</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>164447</v>
+      </c>
+      <c r="E227" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14224665500</v>
+      </c>
+      <c r="G227" t="n">
+        <v>14089672475500</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.1000000014901161</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -42025,6 +42191,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>85600</v>
+      </c>
+      <c r="C229" t="n">
+        <v>322741</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42037,7 +42219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47947,11 +48129,21 @@
       <c r="C227" t="n">
         <v>1061797</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>7495296</v>
+      </c>
+      <c r="E227" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>94590635520</v>
+      </c>
+      <c r="G227" t="n">
+        <v>6310000000000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -47969,6 +48161,22 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C229" t="n">
+        <v>989461</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
